--- a/paper/Submissions/PlantCell/TPC revision/Tables/Table 1b.xlsx
+++ b/paper/Submissions/PlantCell/TPC revision/Tables/Table 1b.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nesol\Documents\Projects\BcSolGWAS\paper\Submissions\PlantCell\TPC revision\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nesol\Documents\Projects\BcSolGWAS\paper\Submissions\PlantCell\TPC revision\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E336BEBB-870B-479B-ACDF-0A225B5B33AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF9B1F0-B95B-403C-B0C1-B7950CF98D40}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10390" windowHeight="5660" xr2:uid="{F91BDC9E-564D-48AA-B8C5-BBFDFE56606D}"/>
   </bookViews>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
-  <si>
-    <t>Fixed Effect</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>DF</t>
   </si>
@@ -62,37 +59,40 @@
     <t>1 | Experiment</t>
   </si>
   <si>
-    <t>1 | Exp:Iso</t>
-  </si>
-  <si>
-    <t>1 | Exp:Domest</t>
-  </si>
-  <si>
     <t>Random Effect</t>
   </si>
   <si>
+    <t>LRT</t>
+  </si>
+  <si>
     <r>
-      <t>X</t>
+      <t>Fixed Effect</t>
     </r>
     <r>
       <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>2</t>
+      <t> </t>
     </r>
   </si>
   <si>
-    <t>LRT</t>
-  </si>
-  <si>
-    <t>8e-07</t>
-  </si>
-  <si>
-    <t>2e-05</t>
+    <t>% genetic variance</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>F value</t>
+  </si>
+  <si>
+    <t>1 | Whole Plant</t>
+  </si>
+  <si>
+    <t>1 | WP/Leaf</t>
   </si>
 </sst>
 </file>
@@ -102,7 +102,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,16 +117,22 @@
       <family val="2"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
+      <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -209,20 +215,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -232,25 +226,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -567,160 +567,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877D768F-4802-4EC8-A0CB-AFB1A27CA283}">
-  <dimension ref="A2:D12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.6328125" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="8" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:4" ht="19" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="10" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:6" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="12">
+        <f>(C3*100)/275.4</f>
+        <v>13.725490196078431</v>
+      </c>
+      <c r="C3" s="7">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="E3" s="7">
+        <v>94</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12">
+        <f t="shared" ref="B4:B7" si="0">(C4*100)/275.4</f>
+        <v>1.2345679012345681</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>14.1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="12">
+        <f t="shared" si="0"/>
+        <v>14.270152505446623</v>
+      </c>
+      <c r="C5" s="7">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="D5" s="7">
+        <v>16.2</v>
+      </c>
+      <c r="E5" s="7">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9">
+        <v>5.0000000000000002E-11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="12">
+        <f t="shared" si="0"/>
+        <v>5.7371096586782864</v>
+      </c>
+      <c r="C6" s="7">
+        <v>15.8</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="E6" s="7">
+        <v>94</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="12">
+        <f t="shared" si="0"/>
+        <v>65.032679738562095</v>
+      </c>
+      <c r="C7" s="7">
+        <v>179.1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="E7" s="7">
+        <v>940</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>136</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>160.69999999999999</v>
-      </c>
-      <c r="C4" s="4">
-        <v>94</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="6">
-        <v>24.37</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="13" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6">
-        <v>294.58999999999997</v>
-      </c>
-      <c r="C6" s="7">
-        <v>10</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6">
-        <v>81.19</v>
-      </c>
-      <c r="C7" s="7">
-        <v>94</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6">
-        <v>756.55</v>
-      </c>
-      <c r="C8" s="7">
-        <v>940</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6">
-        <v>5.1050000000000004</v>
+      <c r="B10" s="7">
+        <v>0.21</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="8">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6">
-        <v>312.10000000000002</v>
+      <c r="D10" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="F10">
+        <f>39.3/3.4</f>
+        <v>11.558823529411764</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="7">
+        <v>22.4</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6">
-        <v>1.0580000000000001</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0.3</v>
+      <c r="D11" s="9">
+        <v>1.9999999999999999E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C14">
+        <f>SUM(C3:C7)</f>
+        <v>275.39999999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>